--- a/UXUI/Power BI (Supplier Dashboard) - Meta data.xlsx
+++ b/UXUI/Power BI (Supplier Dashboard) - Meta data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloe/Desktop/Banana_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloe/Desktop/Banana_project/UXUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{021AFA43-588C-A14C-A79D-B1EF52523B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB6AE9A-D6B1-4D4B-AE6C-510A59E55530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{AF919E1B-A3AB-E741-937B-DA63A940C39F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="198">
   <si>
     <t>Column Name</t>
   </si>
@@ -727,6 +727,241 @@
   </si>
   <si>
     <t xml:space="preserve">Supplier Dashboard Information </t>
+  </si>
+  <si>
+    <t>Fact Table</t>
+  </si>
+  <si>
+    <t>Related Dimension Tables</t>
+  </si>
+  <si>
+    <t>Key Relationships</t>
+  </si>
+  <si>
+    <t>purchase_fact</t>
+  </si>
+  <si>
+    <r>
+      <t>Supplier_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carrier_Dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>shipping line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>original port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>destination port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier ID, Carrier ID, Port IDs, Date</t>
+  </si>
+  <si>
+    <t>sales_fact</t>
+  </si>
+  <si>
+    <r>
+      <t>Supplier_dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>container_commodity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Job_list</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier ID, Date, Container ID, Job ID</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplier_dim</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer ID, Date, Job</t>
+  </si>
+  <si>
+    <t>container_commodity</t>
+  </si>
+  <si>
+    <t>Container ID, Product ID</t>
   </si>
 </sst>
 </file>
@@ -789,7 +1024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -797,11 +1032,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -809,6 +1124,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58159238-E0FA-0740-BED1-9ABA8B80A84D}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,31 +1479,42 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>183</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,8 +1524,17 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1544,17 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1211,8 +1564,17 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1222,13 +1584,29 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,8 +1616,10 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1249,8 +1629,10 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1260,8 +1642,10 @@
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1271,8 +1655,10 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2387,5 +2773,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>